--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1094043.192316637</v>
+        <v>1090569.222288338</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564201</v>
+        <v>189902.9539564204</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728817</v>
+        <v>9102620.618728813</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.9490164215901</v>
       </c>
       <c r="F2" t="n">
-        <v>393.0316656401467</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -710,16 +710,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>8.78742075103631</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>132.5621367133955</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>191.3481078719987</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1023,10 +1023,10 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>139.43630929535</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>201.1407479991916</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>30.53362065572501</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>194.8773026050915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1266,7 +1266,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888678</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>381.6269365471937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>121.008333045774</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1570,22 +1570,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>129.0246247964032</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1610,22 +1610,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>269.5134569480831</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>43.9770614653952</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U16" t="n">
-        <v>128.78350070179</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9918595228949</v>
+        <v>361.0139272020556</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>62.95686178266489</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>189.5968436493438</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>101.6196387143006</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>26.94389492651069</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>43.31785343913981</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2318,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>339.5091118684755</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>125.476383555644</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V25" t="n">
-        <v>9.461970681989216</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,13 +2561,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>310.8635759547339</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -2600,22 +2600,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>229.6565184409988</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,10 +2792,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>69.0708624534348</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>16.7001671379551</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>11.00429467105817</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.127162662147</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,16 +3032,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>323.9918595228954</v>
+        <v>354.3958624239608</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3235,16 +3235,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>11.00429467105817</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>323.9918595228954</v>
+        <v>245.9196712349435</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3585,7 +3585,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3718,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,19 +3746,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>175.5940282806591</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>12.27152410635478</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3803,10 +3803,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>162.5776147681365</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>6.652676009751062</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>97.41307671137056</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4062,7 +4062,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.99240337009249</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1349.56916835588</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="C2" t="n">
-        <v>1349.56916835588</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="D2" t="n">
-        <v>1349.56916835588</v>
+        <v>540.6127852858276</v>
       </c>
       <c r="E2" t="n">
-        <v>1349.56916835588</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.708500331692</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1349.56916835588</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>412.2086804271149</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="C5" t="n">
-        <v>412.2086804271149</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="D5" t="n">
-        <v>53.94298182036445</v>
+        <v>633.0121514610316</v>
       </c>
       <c r="E5" t="n">
-        <v>53.94298182036445</v>
+        <v>247.2238988627874</v>
       </c>
       <c r="F5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.109828622464</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4671,7 +4671,7 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
         <v>2289.884200196743</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>344.90437809669</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>194.7877386843543</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>739.4034003911121</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C8" t="n">
-        <v>739.4034003911121</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D8" t="n">
-        <v>381.1377017843616</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>381.1377017843616</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2666.307049951834</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.483574129469</v>
+        <v>2335.244162608263</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859355</v>
+        <v>1982.475507338148</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982752</v>
+        <v>1982.475507338148</v>
       </c>
       <c r="Y8" t="n">
-        <v>739.4034003911121</v>
+        <v>1982.475507338148</v>
       </c>
     </row>
     <row r="9">
@@ -4878,40 +4878,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816298</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4996,16 +4996,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1192.157102157134</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C11" t="n">
-        <v>823.1945852167225</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D11" t="n">
-        <v>464.928886609972</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="E11" t="n">
-        <v>464.928886609972</v>
+        <v>439.4247359084389</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
@@ -5045,7 +5045,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>1704.527073573122</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X11" t="n">
-        <v>1582.296434132946</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y11" t="n">
-        <v>1192.157102157134</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="12">
@@ -5094,73 +5094,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641996</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598714</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5206,43 +5206,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064341</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T13" t="n">
-        <v>597.8010803716834</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U13" t="n">
-        <v>308.6274700262513</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.915471247702</v>
+        <v>1236.578376364604</v>
       </c>
       <c r="C14" t="n">
-        <v>1122.95295430729</v>
+        <v>867.6158594241924</v>
       </c>
       <c r="D14" t="n">
-        <v>1122.95295430729</v>
+        <v>509.3501608174419</v>
       </c>
       <c r="E14" t="n">
-        <v>737.1647017090459</v>
+        <v>509.3501608174419</v>
       </c>
       <c r="F14" t="n">
-        <v>326.1787969194383</v>
+        <v>98.36425602783436</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036444</v>
+        <v>98.36425602783436</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>98.36425602783436</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548715</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548715</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.654643287635</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.515311311824</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5443,43 +5443,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064341</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064341</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U16" t="n">
-        <v>598.0446400632119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776797</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1933911785527</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="F17" t="n">
-        <v>381.2074863889451</v>
+        <v>745.7982343116905</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757142</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.54400078133</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="18">
@@ -5568,73 +5568,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036376</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036376</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.1903022614622</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.806220357134</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036444</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5680,43 +5680,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064341</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>536.6170209242687</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U19" t="n">
-        <v>536.6170209242687</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V19" t="n">
-        <v>281.9325327183818</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036444</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036444</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2056.787465592192</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C20" t="n">
-        <v>1954.141365880777</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D20" t="n">
-        <v>1595.875667274027</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.087414675782</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5750,13 +5750,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5783,19 +5783,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2443.387305656314</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X20" t="n">
-        <v>2443.387305656314</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y20" t="n">
-        <v>2443.387305656314</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="21">
@@ -5835,10 +5835,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5941,19 +5941,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W22" t="n">
-        <v>684.3735766921516</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>549.649320534154</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="C23" t="n">
-        <v>180.6868035937422</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D23" t="n">
-        <v>180.6868035937422</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>180.6868035937422</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>180.6868035937422</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>180.6868035937422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5990,10 +5990,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6014,25 +6014,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859356</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X23" t="n">
-        <v>936.2491605982757</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y23" t="n">
-        <v>936.2491605982757</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6066,43 +6066,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2321.694245121008</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2032.520634775576</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V25" t="n">
-        <v>2022.963088632153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>799.1015098861748</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C26" t="n">
-        <v>799.1015098861748</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D26" t="n">
-        <v>799.1015098861748</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="E26" t="n">
-        <v>799.1015098861748</v>
+        <v>1106.127218649458</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861748</v>
+        <v>695.1413138598505</v>
       </c>
       <c r="G26" t="n">
         <v>381.1377017843616</v>
@@ -6224,13 +6224,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6248,28 +6248,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2246.538142736751</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>1915.475255393181</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>1562.706600123066</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>1189.240841861987</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>799.1015098861748</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6303,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6415,13 +6415,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V28" t="n">
-        <v>473.4444960005474</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
         <v>53.94298182036445</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1731.411330760289</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C29" t="n">
-        <v>1362.448813819877</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D29" t="n">
-        <v>1004.183115213127</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E29" t="n">
-        <v>618.3948626148824</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F29" t="n">
-        <v>207.4089578252748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
         <v>207.4089578252748</v>
@@ -6461,13 +6461,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6488,25 +6488,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2449.074058167982</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2118.011170824411</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2118.011170824411</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>2118.011170824411</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y29" t="n">
-        <v>2118.011170824411</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6561,22 +6561,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6646,25 +6646,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>570.4247794971948</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T31" t="n">
-        <v>343.1165921657965</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U31" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>65.05843098304948</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776797</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.981643776797</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1933911785532</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="F32" t="n">
-        <v>381.2074863889456</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036445</v>
@@ -6698,13 +6698,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6777,16 +6777,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6798,22 +6798,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6883,13 +6883,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>570.6683391887233</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>343.360151857325</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V34" t="n">
         <v>343.360151857325</v>
@@ -7017,22 +7017,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036445</v>
@@ -7120,25 +7120,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X37" t="n">
-        <v>500.1394333084169</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y37" t="n">
-        <v>279.3468541648867</v>
+        <v>65.05843098304948</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>2307.009759042411</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776797</v>
+        <v>1938.047242101999</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.981643776797</v>
+        <v>1579.781543495249</v>
       </c>
       <c r="E38" t="n">
-        <v>792.1933911785532</v>
+        <v>1193.993290897004</v>
       </c>
       <c r="F38" t="n">
-        <v>381.2074863889456</v>
+        <v>783.0073861073968</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
@@ -7214,10 +7214,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
         <v>665.1105362747051</v>
@@ -7269,25 +7269,25 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>325.6879402326643</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>156.7517573047574</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>156.7517573047574</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>156.7517573047574</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>156.7517573047574</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>507.3364050629041</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1540.921096014692</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="C41" t="n">
-        <v>1540.921096014692</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D41" t="n">
-        <v>1540.921096014692</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E41" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7439,22 +7439,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.752638628377</v>
+        <v>2684.753612122915</v>
       </c>
       <c r="V41" t="n">
-        <v>1893.689751284806</v>
+        <v>2353.690724779344</v>
       </c>
       <c r="W41" t="n">
-        <v>1540.921096014692</v>
+        <v>2000.922069509229</v>
       </c>
       <c r="X41" t="n">
-        <v>1540.921096014692</v>
+        <v>1627.45631124815</v>
       </c>
       <c r="Y41" t="n">
-        <v>1540.921096014692</v>
+        <v>1237.316979272338</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>53.94298182036445</v>
@@ -7503,28 +7503,28 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>218.1627947174721</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7597,22 +7597,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>571.3497027553424</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>571.3497027553424</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W43" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>218.1627947174721</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1216.807289433107</v>
+        <v>907.090798542223</v>
       </c>
       <c r="C44" t="n">
-        <v>1216.807289433107</v>
+        <v>538.1282816018113</v>
       </c>
       <c r="D44" t="n">
-        <v>1216.807289433107</v>
+        <v>538.1282816018113</v>
       </c>
       <c r="E44" t="n">
-        <v>1210.087414675782</v>
+        <v>152.3400290035671</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>152.3400290035671</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>152.3400290035671</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>152.3400290035671</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
@@ -7673,25 +7673,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V44" t="n">
-        <v>1993.54646147304</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W44" t="n">
-        <v>1993.54646147304</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X44" t="n">
-        <v>1993.54646147304</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1603.407129497228</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="45">
@@ -7707,16 +7707,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>2067.399859713054</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S46" t="n">
-        <v>571.3497027553424</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T46" t="n">
-        <v>571.3497027553424</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U46" t="n">
-        <v>571.3497027553424</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="V46" t="n">
-        <v>571.3497027553424</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="W46" t="n">
-        <v>281.9325327183818</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>2249.048324543294</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719086</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119838</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,10 +9018,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P15" t="n">
-        <v>275.0442842992674</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,10 +9252,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>435.9238900028832</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9483,13 +9483,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10191,7 +10191,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,7 +10665,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11306,10 +11306,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -22550,16 +22550,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>375.9813536506717</v>
       </c>
       <c r="F2" t="n">
-        <v>13.8443801015647</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,16 +22598,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22711,22 +22711,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>203.3581181989826</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22768,7 +22768,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>250.171704950085</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22790,10 +22790,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>215.5279378697127</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -22850,7 +22850,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22942,13 +22942,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>6.997653351219213</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -22984,7 +22984,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -22993,10 +22993,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>85.14112624278616</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,22 +23018,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23066,16 +23066,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>220.6905468525643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23084,10 +23084,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>191.3606360509621</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23154,7 +23154,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23185,22 +23185,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>16.63754732114117</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23236,10 +23236,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>25.24910919451776</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23312,16 +23312,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>248.722767632695</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23434,10 +23434,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,22 +23458,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>96.01048066168107</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>144.2707130727119</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>107.9542547794661</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23552,13 +23552,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23671,10 +23671,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,25 +23695,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787189</v>
       </c>
       <c r="U16" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,16 +23738,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>89.79231049790008</v>
+        <v>52.7702428187394</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23792,7 +23792,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>104.2899593159629</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,16 +23902,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,28 +23932,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>35.43826180874052</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>263.6532530567069</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>296.9788778378464</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24023,19 +24023,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24181,19 +24181,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>243.2051448974512</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,22 +24206,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>25.76377990253201</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>198.4463892087131</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24254,25 +24254,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24409,22 +24409,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V25" t="n">
-        <v>242.6756726418388</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,13 +24449,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>102.9205940660611</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24488,22 +24488,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>21.56764906729052</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24680,10 +24680,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>296.2020293175727</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24728,25 +24728,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>234.5240003703342</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>168.8276855108791</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24886,13 +24886,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>56.01837628787186</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,10 +24901,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24920,16 +24920,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>89.79231049789962</v>
+        <v>59.38830759683424</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24977,7 +24977,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25123,16 +25123,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>56.2595003824851</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>168.8276855108791</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>123.9919488199112</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25360,7 +25360,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,13 +25403,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>89.79231049789962</v>
+        <v>167.8644987858515</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25454,7 +25454,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>65.52911452950187</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25606,16 +25606,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,19 +25634,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>206.3363417916027</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,10 +25679,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>238.9526434019345</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,10 +25691,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>4.732187490914384</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25837,22 +25837,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>69.82361682150338</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,25 +25865,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>375.2776940625107</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>54.51823953349069</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25913,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.2544177285353</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26071,10 +26071,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>56.93405031343801</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.344109998</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="C2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="D2" t="n">
         <v>289152.6100157576</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="F2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="G2" t="n">
         <v>289152.6100157575</v>
       </c>
-      <c r="D2" t="n">
+      <c r="H2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="I2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="J2" t="n">
         <v>289152.6100157575</v>
       </c>
-      <c r="E2" t="n">
+      <c r="K2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="L2" t="n">
         <v>289152.6100157575</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="N2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="O2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="P2" t="n">
         <v>289152.6100157574</v>
-      </c>
-      <c r="G2" t="n">
-        <v>289152.6100157574</v>
-      </c>
-      <c r="H2" t="n">
-        <v>289152.6100157575</v>
-      </c>
-      <c r="I2" t="n">
-        <v>289152.6100157575</v>
-      </c>
-      <c r="J2" t="n">
-        <v>289152.6100157574</v>
-      </c>
-      <c r="K2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="L2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="M2" t="n">
-        <v>289152.6100157578</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289152.6100157574</v>
-      </c>
-      <c r="O2" t="n">
-        <v>289152.6100157574</v>
-      </c>
-      <c r="P2" t="n">
-        <v>289152.6100157576</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-401488.0603223923</v>
+        <v>-401903.2748318597</v>
       </c>
       <c r="C6" t="n">
-        <v>188479.8188921521</v>
+        <v>188064.6043826847</v>
       </c>
       <c r="D6" t="n">
-        <v>188479.8188921521</v>
+        <v>188064.6043826848</v>
       </c>
       <c r="E6" t="n">
-        <v>222107.4188921521</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="F6" t="n">
-        <v>222107.418892152</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="G6" t="n">
-        <v>222107.418892152</v>
+        <v>221692.2043826848</v>
       </c>
       <c r="H6" t="n">
-        <v>222107.4188921521</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="I6" t="n">
-        <v>222107.418892152</v>
+        <v>221692.2043826848</v>
       </c>
       <c r="J6" t="n">
-        <v>45684.19969955903</v>
+        <v>45268.98519009183</v>
       </c>
       <c r="K6" t="n">
-        <v>222107.4188921521</v>
+        <v>221692.2043826847</v>
       </c>
       <c r="L6" t="n">
-        <v>222107.4188921521</v>
+        <v>221692.2043826848</v>
       </c>
       <c r="M6" t="n">
-        <v>222107.4188921524</v>
+        <v>221692.2043826848</v>
       </c>
       <c r="N6" t="n">
-        <v>222107.418892152</v>
+        <v>221692.2043826848</v>
       </c>
       <c r="O6" t="n">
-        <v>222107.418892152</v>
+        <v>221692.2043826848</v>
       </c>
       <c r="P6" t="n">
-        <v>222107.4188921521</v>
+        <v>221692.2043826847</v>
       </c>
     </row>
   </sheetData>
@@ -26744,13 +26744,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26793,16 +26793,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
         <v>193.1674799081577</v>
@@ -31771,25 +31771,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
         <v>155.1528646479577</v>
@@ -31862,16 +31862,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
         <v>193.1674799081577</v>
@@ -32008,25 +32008,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
         <v>155.1528646479577</v>
@@ -32099,16 +32099,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
         <v>193.1674799081577</v>
@@ -32245,25 +32245,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479577</v>
@@ -32336,16 +32336,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35422,10 +35422,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624598</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,13 +35568,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
         <v>148.370846145888</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K14" t="n">
         <v>297.2230414343419</v>
@@ -35656,13 +35656,13 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492232</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P15" t="n">
-        <v>296.2227415328948</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35805,13 +35805,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
         <v>148.370846145888</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35896,10 +35896,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>515.9012490932199</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
         <v>148.370846145888</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36203,13 +36203,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K26" t="n">
         <v>297.2230414343419</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,7 +36683,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36850,7 +36850,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36920,7 +36920,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37157,7 +37157,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37312,7 +37312,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
         <v>478.8956552492236</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37403,7 +37403,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
         <v>308.9376163116798</v>
@@ -37871,13 +37871,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,10 +38026,10 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P44" t="n">
         <v>308.9376163116798</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1090569.222288338</v>
+        <v>1119413.533043066</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564204</v>
+        <v>189902.9539564205</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>9102620.618728809</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>5.9490164215901</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>52.33058075095268</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>155.3197306044664</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>8.78742075103631</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>191.3481078719987</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>79.68555956924305</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>28.24674161676281</v>
       </c>
       <c r="U7" t="n">
-        <v>201.1407479991916</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>30.53362065572501</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>353.5759586385877</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T9" t="n">
         <v>196.8897623984489</v>
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>106.0725670814544</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,16 +1375,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>381.6269365471937</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1430,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>43.9770614653952</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1807,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>169.0167291702124</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1850,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>361.0139272020556</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>62.95686178266489</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>235.7412200973003</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2090,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>376.0368885193222</v>
       </c>
       <c r="H20" t="n">
-        <v>26.94389492651069</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>47.1416784925591</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>339.5091118684755</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806818</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>101.7806877295488</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2557,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>310.8635759547339</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>1.998219257061453</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2615,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2767,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>94.63926978363978</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>69.0708624534348</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.00429467105817</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,16 +3034,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>354.3958624239608</v>
+        <v>344.4819914839516</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>155.2114886365808</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>323.9918595228954</v>
+        <v>340.0237825764901</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3360,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11.00429467105817</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>25.3159054168628</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>279.9387901805692</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>245.9196712349435</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3585,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3709,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>230.2634979541055</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>111.8822753849631</v>
       </c>
       <c r="U41" t="n">
-        <v>12.27152410635478</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>162.5776147681365</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>15.9124227879787</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3980,10 +3982,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>97.41307671137056</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -4037,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>103.5274726747894</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4062,7 +4064,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>43.99240337009249</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>898.8784838925781</v>
+        <v>1647.620145934678</v>
       </c>
       <c r="C2" t="n">
-        <v>898.8784838925781</v>
+        <v>1278.657628994267</v>
       </c>
       <c r="D2" t="n">
-        <v>540.6127852858276</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E2" t="n">
         <v>534.603677789272</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2644.289918542513</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2390.528133180604</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2390.528133180604</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2037.75947791049</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>2037.75947791049</v>
       </c>
       <c r="Y2" t="n">
-        <v>898.8784838925781</v>
+        <v>1647.620145934678</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,43 +4409,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>571.1061430638139</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>571.1061430638139</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>281.9325327183818</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>991.2778500677821</v>
+        <v>1658.435818966735</v>
       </c>
       <c r="C5" t="n">
-        <v>991.2778500677821</v>
+        <v>1289.473302026323</v>
       </c>
       <c r="D5" t="n">
-        <v>633.0121514610316</v>
+        <v>931.2076034195729</v>
       </c>
       <c r="E5" t="n">
-        <v>247.2238988627874</v>
+        <v>545.4193508213286</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036445</v>
+        <v>134.4334460317211</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4568,7 +4570,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4601,16 +4603,16 @@
         <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1364.743608328862</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X5" t="n">
-        <v>991.2778500677821</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y5" t="n">
-        <v>991.2778500677821</v>
+        <v>1658.435818966735</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4662,7 +4664,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4674,13 +4676,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>257.1154545468206</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1595.875667274027</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2666.307049951834</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2335.244162608263</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1982.475507338148</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.475507338148</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="Y8" t="n">
-        <v>1982.475507338148</v>
+        <v>952.5674858910851</v>
       </c>
     </row>
     <row r="9">
@@ -4884,28 +4886,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073964</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.0273259635867</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C10" t="n">
-        <v>184.0273259635867</v>
+        <v>500.820796875036</v>
       </c>
       <c r="D10" t="n">
-        <v>184.0273259635867</v>
+        <v>500.820796875036</v>
       </c>
       <c r="E10" t="n">
-        <v>184.0273259635867</v>
+        <v>500.820796875036</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>184.0273259635867</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X10" t="n">
-        <v>184.0273259635867</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.0273259635867</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1194.175505447095</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C11" t="n">
-        <v>825.2129885066831</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D11" t="n">
-        <v>825.2129885066831</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E11" t="n">
-        <v>439.4247359084389</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G11" t="n">
         <v>53.94298182036445</v>
@@ -5039,13 +5041,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5078,13 +5080,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>1970.914677487028</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y11" t="n">
-        <v>1580.775345511217</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1236.578376364604</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C14" t="n">
-        <v>867.6158594241924</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D14" t="n">
-        <v>509.3501608174419</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E14" t="n">
-        <v>509.3501608174419</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>98.36425602783436</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>98.36425602783436</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>98.36425602783436</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5312,16 +5314,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>2013.317548404538</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y14" t="n">
-        <v>1623.178216428726</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="15">
@@ -5367,7 +5369,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
         <v>2188.831293537797</v>
@@ -5440,31 +5442,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S16" t="n">
-        <v>513.8405610245969</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T16" t="n">
-        <v>343.1165921657965</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U16" t="n">
         <v>53.94298182036445</v>
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1525.74665604171</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>1156.784139101298</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>1156.784139101298</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>1156.784139101298</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F17" t="n">
-        <v>745.7982343116905</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5513,13 +5515,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2289.351746278601</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1915.885988017521</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>1525.74665604171</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5607,10 +5609,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>332.1920961943572</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C19" t="n">
-        <v>268.5993065148977</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D19" t="n">
-        <v>268.5993065148977</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E19" t="n">
-        <v>268.5993065148977</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
         <v>53.94298182036445</v>
@@ -5677,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V19" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W19" t="n">
-        <v>513.8405610245969</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X19" t="n">
-        <v>513.8405610245969</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y19" t="n">
-        <v>513.8405610245969</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1194.175505447095</v>
+        <v>1957.780595683987</v>
       </c>
       <c r="C20" t="n">
-        <v>825.2129885066831</v>
+        <v>1588.818078743575</v>
       </c>
       <c r="D20" t="n">
-        <v>466.9472898999326</v>
+        <v>1230.552380136825</v>
       </c>
       <c r="E20" t="n">
-        <v>81.15903730168839</v>
+        <v>844.7641275385804</v>
       </c>
       <c r="F20" t="n">
-        <v>81.15903730168839</v>
+        <v>433.7782227489728</v>
       </c>
       <c r="G20" t="n">
-        <v>81.15903730168839</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5768,34 +5770,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748108</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X20" t="n">
-        <v>1970.914677487028</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="Y20" t="n">
-        <v>1580.775345511217</v>
+        <v>2344.380435748109</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5828,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>396.3638799638589</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>248.4507863814658</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>101.5608388835555</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1611.619444146874</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.68094731003</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6005,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y23" t="n">
-        <v>1998.219284210995</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6065,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6078,13 +6080,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>2294.708047044453</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U25" t="n">
-        <v>598.0446400632119</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>2476.356511874693</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1491.915471247702</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C26" t="n">
-        <v>1491.915471247702</v>
+        <v>825.2129885066836</v>
       </c>
       <c r="D26" t="n">
-        <v>1491.915471247702</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="E26" t="n">
-        <v>1106.127218649458</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="F26" t="n">
-        <v>695.1413138598505</v>
+        <v>55.96138511032552</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>55.96138511032552</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6242,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W26" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.654643287636</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y26" t="n">
-        <v>1878.515311311824</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6302,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U28" t="n">
-        <v>598.0446400632119</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V28" t="n">
-        <v>343.360151857325</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>2118.55831063583</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.915471247702</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C29" t="n">
-        <v>1422.14692331494</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D29" t="n">
-        <v>1422.14692331494</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E29" t="n">
-        <v>1036.358670716696</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F29" t="n">
-        <v>625.3727659270879</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614632</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M30" t="n">
         <v>1237.953133915166</v>
@@ -6585,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>513.8405610245969</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W31" t="n">
-        <v>513.8405610245969</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X31" t="n">
-        <v>285.8510101265796</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y31" t="n">
-        <v>65.05843098304948</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1139.146815977588</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C32" t="n">
-        <v>770.1842990371763</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D32" t="n">
-        <v>411.9186004304258</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="E32" t="n">
-        <v>411.9186004304258</v>
+        <v>812.8904941695191</v>
       </c>
       <c r="F32" t="n">
-        <v>411.9186004304258</v>
+        <v>401.9045893799116</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6716,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W32" t="n">
-        <v>2289.351746278601</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X32" t="n">
-        <v>1915.885988017521</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="Y32" t="n">
-        <v>1525.74665604171</v>
+        <v>1954.241103772297</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6776,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U34" t="n">
-        <v>598.0446400632119</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.944160717209</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776797</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.981643776797</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E35" t="n">
-        <v>792.1933911785532</v>
+        <v>808.3872528488509</v>
       </c>
       <c r="F35" t="n">
-        <v>381.2074863889456</v>
+        <v>397.4013480592434</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036471</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204946</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615931</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572651</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7059,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761949</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>377.544336448288</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359523</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>79.5146034535592</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S37" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T37" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U37" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V37" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W37" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X37" t="n">
-        <v>285.8510101265796</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y37" t="n">
-        <v>65.05843098304948</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2307.009759042411</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C38" t="n">
-        <v>1938.047242101999</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D38" t="n">
-        <v>1579.781543495249</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>1193.993290897004</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>783.0073861073968</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7233,16 +7235,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7251,25 +7253,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7357,19 +7359,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V40" t="n">
-        <v>2442.464602812336</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W40" t="n">
-        <v>2153.047432775375</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
         <v>2022.963088632153</v>
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>850.7171392082162</v>
+        <v>750.1002187247734</v>
       </c>
       <c r="C41" t="n">
-        <v>850.7171392082162</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082162</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7439,22 +7441,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2584.136691639472</v>
       </c>
       <c r="U41" t="n">
-        <v>2684.753612122915</v>
+        <v>2584.136691639472</v>
       </c>
       <c r="V41" t="n">
-        <v>2353.690724779344</v>
+        <v>2253.073804295901</v>
       </c>
       <c r="W41" t="n">
-        <v>2000.922069509229</v>
+        <v>1900.305149025787</v>
       </c>
       <c r="X41" t="n">
-        <v>1627.45631124815</v>
+        <v>1526.839390764707</v>
       </c>
       <c r="Y41" t="n">
-        <v>1237.316979272338</v>
+        <v>1136.700058788895</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
         <v>2188.831293537797</v>
@@ -7509,28 +7511,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>218.1627947174721</v>
+        <v>70.01613615165607</v>
       </c>
       <c r="C43" t="n">
-        <v>218.1627947174721</v>
+        <v>70.01613615165607</v>
       </c>
       <c r="D43" t="n">
-        <v>218.1627947174721</v>
+        <v>70.01613615165607</v>
       </c>
       <c r="E43" t="n">
-        <v>218.1627947174721</v>
+        <v>70.01613615165607</v>
       </c>
       <c r="F43" t="n">
-        <v>218.1627947174721</v>
+        <v>70.01613615165607</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>70.01613615165607</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>70.01613615165607</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036445</v>
@@ -7591,28 +7593,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610022</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V43" t="n">
-        <v>438.9553738610022</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W43" t="n">
-        <v>438.9553738610022</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X43" t="n">
-        <v>438.9553738610022</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.1627947174721</v>
+        <v>70.01613615165607</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>907.090798542223</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C44" t="n">
-        <v>538.1282816018113</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D44" t="n">
-        <v>538.1282816018113</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E44" t="n">
-        <v>152.3400290035671</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F44" t="n">
-        <v>152.3400290035671</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>152.3400290035671</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>152.3400290035671</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7673,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W44" t="n">
-        <v>2057.295728843236</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="X44" t="n">
-        <v>1683.829970582156</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y44" t="n">
-        <v>1293.690638606345</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="45">
@@ -7707,13 +7709,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7725,31 +7727,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
         <v>2488.762748073963</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2067.399859713054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2469.840903686824</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>2469.840903686824</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>2469.840903686824</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>2469.840903686824</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>2249.048324543294</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8310,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9015,10 +9017,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O15" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9255,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9410,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451755</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,7 +11153,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>350.4438349360591</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11309,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,13 +22549,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>375.9813536506717</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22592,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>164.1177396067051</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22717,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>11.99007165458451</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>203.3581181989826</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22768,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22784,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22793,10 +22795,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>215.5279378697127</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>334.098610451552</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -22841,16 +22843,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22951,7 +22953,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -22960,10 +22962,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>196.7883638413215</v>
       </c>
       <c r="U7" t="n">
-        <v>85.14112624278616</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23027,10 +23029,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>220.6905468525643</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23084,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>16.1551420398813</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23188,19 +23190,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>16.63754732114117</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>61.23723517759649</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -23230,16 +23232,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23261,16 +23263,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.24910919451776</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23318,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23501,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>107.9542547794661</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23552,13 +23554,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23674,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>56.01837628787189</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>231.8063182229438</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>52.7702428187394</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23792,7 +23794,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>104.2899593159629</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23911,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>50.7817782392907</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23978,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>37.74728150147274</v>
       </c>
       <c r="H20" t="n">
-        <v>296.9788778378464</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>120.1681237664918</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24148,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24181,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>25.76377990253201</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>74.74425144011315</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24260,7 +24262,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866354</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24385,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24418,19 +24420,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>102.9205940660611</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>321.9245535072957</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24503,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24622,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24655,16 +24657,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053974</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>296.2020293175727</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.8276855108791</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>19.83197231642205</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24859,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24895,16 +24897,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24920,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>59.38830759683424</v>
+        <v>69.30217853684343</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24980,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25096,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25129,19 +25131,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551401</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>89.79231049789962</v>
+        <v>73.76038744430491</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25214,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>168.8276855108791</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060685</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25333,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,13 +25356,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -25375,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>74.74425144011371</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>167.8644987858515</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25567,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,28 +25593,28 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787223</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25679,10 +25681,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>104.5660449726947</v>
       </c>
       <c r="U41" t="n">
-        <v>238.9526434019345</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>4.732187490914384</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>119.0531990043595</v>
       </c>
       <c r="J43" t="n">
         <v>45.199959188537</v>
@@ -25831,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25868,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25883,7 +25885,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>54.51823953349069</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>245.7134960426237</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>123.2544177285353</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26074,22 +26076,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>740597.344109998</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>740597.3441099979</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>740597.3441099977</v>
+        <v>740597.3441099976</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099979</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>740597.3441099976</v>
+        <v>740597.3441099977</v>
       </c>
     </row>
   </sheetData>
@@ -26314,10 +26316,10 @@
         <v>289152.6100157574</v>
       </c>
       <c r="C2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="D2" t="n">
         <v>289152.6100157574</v>
-      </c>
-      <c r="D2" t="n">
-        <v>289152.6100157576</v>
       </c>
       <c r="E2" t="n">
         <v>289152.6100157576</v>
@@ -26326,31 +26328,31 @@
         <v>289152.6100157576</v>
       </c>
       <c r="G2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="H2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="I2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="J2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="K2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="L2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="M2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="N2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="O2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="P2" t="n">
         <v>289152.6100157574</v>
@@ -26485,22 +26487,22 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26522,43 +26524,43 @@
         <v>-401903.2748318597</v>
       </c>
       <c r="C6" t="n">
+        <v>188064.6043826848</v>
+      </c>
+      <c r="D6" t="n">
         <v>188064.6043826847</v>
       </c>
-      <c r="D6" t="n">
-        <v>188064.6043826848</v>
-      </c>
       <c r="E6" t="n">
-        <v>221692.2043826849</v>
+        <v>221692.2043826848</v>
       </c>
       <c r="F6" t="n">
         <v>221692.2043826849</v>
       </c>
       <c r="G6" t="n">
-        <v>221692.2043826848</v>
+        <v>221692.204382685</v>
       </c>
       <c r="H6" t="n">
         <v>221692.2043826849</v>
       </c>
       <c r="I6" t="n">
-        <v>221692.2043826848</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="J6" t="n">
-        <v>45268.98519009183</v>
+        <v>45268.98519009198</v>
       </c>
       <c r="K6" t="n">
-        <v>221692.2043826847</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="L6" t="n">
-        <v>221692.2043826848</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="M6" t="n">
-        <v>221692.2043826848</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="N6" t="n">
-        <v>221692.2043826848</v>
+        <v>221692.2043826851</v>
       </c>
       <c r="O6" t="n">
-        <v>221692.2043826848</v>
+        <v>221692.2043826849</v>
       </c>
       <c r="P6" t="n">
         <v>221692.2043826847</v>
@@ -26747,28 +26749,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="N3" t="n">
         <v>377.7436642170866</v>
@@ -26805,22 +26807,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31993,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32230,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32257,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32406,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32467,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33649,46 +33651,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N35" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N36" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33825,28 +33827,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N37" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,10 +34795,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K11" t="n">
         <v>297.2230414343419</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35507,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,13 +35737,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36215,7 +36217,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36689,7 +36691,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36926,7 +36928,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37163,7 +37165,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L37" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M37" t="n">
         <v>146.3614835535656</v>
@@ -37476,10 +37478,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O37" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37555,13 +37557,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37871,7 +37873,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>401.1632560839194</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -38029,7 +38031,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
         <v>308.9376163116798</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
@@ -38114,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
